--- a/apifile/dashboard.xlsx
+++ b/apifile/dashboard.xlsx
@@ -925,7 +925,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>{'configurableAttrs': [{'uKey': 'serverIp', 'value': '11'}, {'uKey': 'terid', 'value': '11'}], 'uid': 'testkmxL068G', 'name': 'testkmxL068G', 'deviceModelId': '738682240710184960', 'appLabelList': {'deviceArea': '003', 'manager': '041', 'installationDate': '2020-09-07', 'qualityAssuranceDate': '2020-09-23', 'installer': '', 'supplier': '', 'maintenanceVendor': '', 'tags': '', 'address': 'jianhang)', 'production': '', 'deviceType': '', 'vehicleId': ''}, 'location': {'coordinateSystemType': 'GCJ02', 'coordinates': [113.522353, 22.801394], 'type': 'Point'}, 'deviceType': 'Radio', 'appLabels': [{'key': 'deviceArea', 'value': '003'}, {'key': 'manager', 'value': '041'}, {'key': 'installationDate', 'value': '2020-09-07'}, {'key': 'qualityAssuranceDate', 'value': '2020-09-23'}, {'key': 'address', 'value': 'jianhang'}]}</t>
+          <t>{'configurableAttrs': [{'uKey': 'serverIp', 'value': '11'}, {'uKey': 'terid', 'value': '11'}], 'uid': 'testVILMxdvs', 'name': 'testVILMxdvs', 'deviceModelId': '738682240710184960', 'appLabelList': {'deviceArea': '003', 'manager': '041', 'installationDate': '2020-09-07', 'qualityAssuranceDate': '2020-09-23', 'installer': '', 'supplier': '', 'maintenanceVendor': '', 'tags': '', 'address': 'jianhang)', 'production': '', 'deviceType': '', 'vehicleId': ''}, 'location': {'coordinateSystemType': 'GCJ02', 'coordinates': [113.522353, 22.801394], 'type': 'Point'}, 'deviceType': 'Radio', 'appLabels': [{'key': 'deviceArea', 'value': '003'}, {'key': 'manager', 'value': '041'}, {'key': 'installationDate', 'value': '2020-09-07'}, {'key': 'qualityAssuranceDate', 'value': '2020-09-23'}, {'key': 'address', 'value': 'jianhang'}]}</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">

--- a/apifile/dashboard.xlsx
+++ b/apifile/dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APITest\apifile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828DC289-09B1-4A65-85FD-1C75D2CE9FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3BF3DF-DC96-4FAA-85A8-E9155E8A4F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="1650" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -55,104 +55,103 @@
     <t>设备类型统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100126</t>
-  </si>
-  <si>
     <t>设备在线率统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100130</t>
-  </si>
-  <si>
     <t>设备状态统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100131</t>
-  </si>
-  <si>
     <t>设备数量增长率统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100132</t>
-  </si>
-  <si>
     <t>设备数量统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100133</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 在线设备总数统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100134</t>
-  </si>
-  <si>
     <t>各部门设备数统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100135</t>
-  </si>
-  <si>
     <t>当前事件列表</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100136</t>
-  </si>
-  <si>
     <t>今日事件分类统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100137</t>
-  </si>
-  <si>
     <t>设备总数统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100139</t>
-  </si>
-  <si>
     <t>载体总数统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100140</t>
-  </si>
-  <si>
     <t>在线设备数量统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100141</t>
-  </si>
-  <si>
     <t>照明能耗统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100142</t>
-  </si>
-  <si>
     <t>设备上线率统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100143</t>
-  </si>
-  <si>
     <t>亮灯时长统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100144</t>
-  </si>
-  <si>
     <t>亮灯率统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100197</t>
-  </si>
-  <si>
     <t>事件总数统计</t>
   </si>
   <si>
-    <t>http://island.dev.iot-cas.com:8081/island/panelItemData?id=100127</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100127</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100126</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100130</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100131</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100132</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100133</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100134</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100135</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100136</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100137</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100139</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100140</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100141</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100142</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100143</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100144</t>
+  </si>
+  <si>
+    <t>http://island.iot-cas.com:8081/island/panelItemData?id=100197</t>
   </si>
 </sst>
 </file>
@@ -550,7 +549,7 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -567,24 +566,24 @@
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6">
+        <v>200</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6">
-        <v>200</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -596,12 +595,12 @@
         <v>200</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -613,12 +612,12 @@
         <v>200</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -630,12 +629,12 @@
         <v>200</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -647,12 +646,12 @@
         <v>200</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -664,12 +663,12 @@
         <v>200</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -681,12 +680,12 @@
         <v>200</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -698,12 +697,12 @@
         <v>200</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -715,12 +714,12 @@
         <v>200</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -732,12 +731,12 @@
         <v>200</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -749,12 +748,12 @@
         <v>200</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -766,12 +765,12 @@
         <v>200</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
@@ -783,12 +782,12 @@
         <v>200</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>8</v>
@@ -800,12 +799,12 @@
         <v>200</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -817,12 +816,12 @@
         <v>200</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
@@ -834,29 +833,29 @@
         <v>200</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100127" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100126" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100130" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100131" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100132" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100133" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100134" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100135" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100136" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100137" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100139" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100140" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100141" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100142" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100143" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100144" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="http://island.dev.iot-cas.com:8081/island/panelItemData?id=100197" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
